--- a/data/income_statement/2digits/size/56_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/56_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>56-Food and beverage service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>56-Food and beverage service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,638 +841,723 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1945328.96107</v>
+        <v>2013631.15303</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2197548.45938</v>
+        <v>2274018.78524</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2351718.007600001</v>
+        <v>2434773.51209</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2545846.11838</v>
+        <v>2654551.45054</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2599339.18287</v>
+        <v>2725019.80214</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2850197.76779</v>
+        <v>3012528.39799</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3210016.87145</v>
+        <v>3433477.81281</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3828794.65222</v>
+        <v>4120838.4012</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>4683640.2664</v>
+        <v>5036381.745949999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>7529847.98209</v>
+        <v>7943917.7512</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>9477694.558219999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>10452733.27935</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>10013734.006</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1881288.20255</v>
+        <v>1944708.39052</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2123063.88073</v>
+        <v>2192892.45793</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2275493.11417</v>
+        <v>2349159.84519</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2459422.91422</v>
+        <v>2558691.82495</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2514751.05851</v>
+        <v>2624789.74862</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2770181.0299</v>
+        <v>2911925.99007</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3115601.98034</v>
+        <v>3311741.39866</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3720186.41828</v>
+        <v>3993701.23589</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>4521292.06895</v>
+        <v>4851580.666350001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>7208945.31222</v>
+        <v>7584342.237709999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>9149213.43227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10069146.37578</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>9599076.514</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>22008.96551</v>
+        <v>22385.61529</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>28824.86081</v>
+        <v>29624.95615</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>28745.71547</v>
+        <v>30709.00985</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>26623.53883</v>
+        <v>28342.87331</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>25944.89188</v>
+        <v>29788.21198</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>19743.58706</v>
+        <v>28591.56205</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>23901.44644</v>
+        <v>33686.60185</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>23394.17194</v>
+        <v>25854.42063</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>42888.93822</v>
+        <v>46167.84778</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>150075.0327</v>
+        <v>159736.3315</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>112608.6165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>122388.00054</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>160464.292</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>42031.79301</v>
+        <v>46537.14722</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>45659.71784</v>
+        <v>51501.37116</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>47479.17795999999</v>
+        <v>54904.65704999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>59799.66533</v>
+        <v>67516.75228</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>58643.23248000001</v>
+        <v>70441.84153999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>60273.15083</v>
+        <v>72010.84587</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>70513.44467</v>
+        <v>88049.81229999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>85214.06200000001</v>
+        <v>101282.74468</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>119459.25923</v>
+        <v>138633.23182</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>170827.63717</v>
+        <v>199839.18199</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>215872.50945</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>261198.90303</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>254193.2</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>4165.90509</v>
+        <v>4718.682390000001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>6587.27561</v>
+        <v>7490.399280000001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>4291.50115</v>
+        <v>5374.2055</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>4894.904270000001</v>
+        <v>5791.927470000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>3065.40533</v>
+        <v>3309.7866</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>4977.426109999999</v>
+        <v>5743.99352</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>7374.33086</v>
+        <v>8183.470550000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>10218.36054</v>
+        <v>11416.77231</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>7413.35172</v>
+        <v>10392.10937</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>16031.86415</v>
+        <v>23257.50247</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>33156.28926</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>34455.18705</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>56467.472</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>3466.371059999999</v>
+        <v>3969.87896</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>5575.78923</v>
+        <v>6470.441599999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>3717.94208</v>
+        <v>4793.12986</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>3712.43819</v>
+        <v>4571.64433</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>2318.19978</v>
+        <v>2527.10525</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>3669.140980000001</v>
+        <v>4394.5823</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>4714.60614</v>
+        <v>5470.13141</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>8819.06884</v>
+        <v>9791.42532</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>6291.56</v>
+        <v>8984.811830000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>14199.48241</v>
+        <v>21118.82222</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>26844.90886</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>28043.39528</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>53080.26</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>541.12691</v>
+        <v>583.51156</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>538.02723</v>
+        <v>545.32461</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>412.6599000000001</v>
+        <v>416.76343</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>667.93522</v>
+        <v>699.4752500000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>398.97463</v>
+        <v>403.10426</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1105.02989</v>
+        <v>1134.0548</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2297.33794</v>
+        <v>2336.55468</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1074.48053</v>
+        <v>1219.42589</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>656.98813</v>
+        <v>720.3498500000001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1320.19372</v>
+        <v>1565.49503</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>3296.25369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>3361.149559999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>2058.812</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>158.40712</v>
+        <v>165.29187</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>473.45915</v>
+        <v>474.63307</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>160.89917</v>
+        <v>164.31221</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>514.53086</v>
+        <v>520.80789</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>348.23092</v>
+        <v>379.5770899999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>203.25524</v>
+        <v>215.35642</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>362.38678</v>
+        <v>376.78446</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>324.8111700000001</v>
+        <v>405.9211</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>464.80359</v>
+        <v>686.94769</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>512.1880199999999</v>
+        <v>573.18522</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>3015.12671</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>3050.64221</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1328.4</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1941163.05598</v>
+        <v>2008912.47064</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2190961.18377</v>
+        <v>2266528.38596</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2347426.50645</v>
+        <v>2429399.30659</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2540951.21411</v>
+        <v>2648759.52307</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2596273.77754</v>
+        <v>2721710.01554</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2845220.341680001</v>
+        <v>3006784.40447</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3202642.54059</v>
+        <v>3425294.34226</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3818576.29168</v>
+        <v>4109421.62889</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>4676226.91468</v>
+        <v>5025989.63658</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>7513816.11794</v>
+        <v>7920660.248729999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>9444538.268959999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>10418278.0923</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>9957266.534</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1486452.48167</v>
+        <v>1534534.85027</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1684532.95281</v>
+        <v>1742109.92121</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1815142.87543</v>
+        <v>1872745.8152</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1964072.5517</v>
+        <v>2041128.14541</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2010421.52481</v>
+        <v>2098655.58395</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2201587.94727</v>
+        <v>2325222.45855</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2485139.79168</v>
+        <v>2654895.66464</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2980615.96911</v>
+        <v>3204982.12901</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>3661030.38419</v>
+        <v>3927784.07017</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5984163.43243</v>
+        <v>6286970.95322</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>7509777.052399999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>8252314.028710001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>8082093.068</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>270164.49843</v>
+        <v>282142.43878</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>317287.8964</v>
+        <v>328470.3707</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>327765.07246</v>
+        <v>339174.59068</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>343381.12431</v>
+        <v>356746.8158099999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>365507.72726</v>
+        <v>380008.19589</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>414864.20627</v>
+        <v>432121.06902</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>473726.32231</v>
+        <v>506152.70448</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>561351.04734</v>
+        <v>607554.5621799999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>663753.16839</v>
+        <v>722315.38228</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1092711.72689</v>
+        <v>1144178.31396</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1395546.35082</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1536112.43473</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1497780.571</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>645515.25296</v>
+        <v>661720.83029</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>698659.97834</v>
+        <v>720079.9012300001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>710446.8763400001</v>
+        <v>731183.39727</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>787936.3035599999</v>
+        <v>814375.0382899999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>735524.83485</v>
+        <v>763801.0044200001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>788599.74555</v>
+        <v>834999.20867</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>886315.4447900001</v>
+        <v>944708.4300599999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1012496.16037</v>
+        <v>1074526.57595</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1332920.79563</v>
+        <v>1403040.7723</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2347516.85175</v>
+        <v>2463922.962730001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2911738.65118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3174676.81474</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3348170.877</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>567264.67622</v>
+        <v>587087.80326</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>659697.1333</v>
+        <v>684371.11839</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>773638.61419</v>
+        <v>798722.00706</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>829405.4354099999</v>
+        <v>866415.20205</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>904388.8015299999</v>
+        <v>949581.40128</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>992726.7335200001</v>
+        <v>1051480.08335</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1114214.00276</v>
+        <v>1189988.56698</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1393968.03179</v>
+        <v>1508571.01561</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1644100.77444</v>
+        <v>1779271.93792</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2513146.00121</v>
+        <v>2643204.33487</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3167883.74201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3498838.56513</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3195255.988</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>3508.05406</v>
+        <v>3583.77794</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>8887.94477</v>
+        <v>9188.53089</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>3292.31244</v>
+        <v>3665.82019</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>3349.68842</v>
+        <v>3591.08926</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>5000.16117</v>
+        <v>5264.982359999999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>5397.261930000001</v>
+        <v>6622.09751</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>10884.02182</v>
+        <v>14045.96312</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>12800.72961</v>
+        <v>14329.97527</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>20255.64573</v>
+        <v>23155.97767</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>30788.85258</v>
+        <v>35665.34166000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>34608.30839</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>42686.21411</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>40885.632</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>454710.5743099999</v>
+        <v>474377.62037</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>506428.23096</v>
+        <v>524418.46475</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>532283.63102</v>
+        <v>556653.49139</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>576878.66241</v>
+        <v>607631.3776600001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>585852.2527300001</v>
+        <v>623054.4315899999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>643632.3944100001</v>
+        <v>681561.9459200001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>717502.74891</v>
+        <v>770398.67762</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>837960.3225700001</v>
+        <v>904439.49988</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1015196.53049</v>
+        <v>1098205.56641</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1529652.68551</v>
+        <v>1633689.29551</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1934761.21656</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2165964.06359</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1875173.466</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>491485.54859</v>
+        <v>518995.77795</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>540835.62616</v>
+        <v>567828.2677000001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>595613.40788</v>
+        <v>631471.92298</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>656012.2026900001</v>
+        <v>702589.7668300001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>705934.49372</v>
+        <v>757059.64108</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>786178.7455399999</v>
+        <v>842020.1095999999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>915858.53569</v>
+        <v>1001239.8919</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1101635.67852</v>
+        <v>1215896.79896</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1272124.91853</v>
+        <v>1417697.82476</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1851266.3603</v>
+        <v>1992966.30771</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2262909.19622</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2544058.9892</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2388905.475</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1645.51651</v>
@@ -1580,466 +1566,526 @@
         <v>1155.62193</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>927.14125</v>
+        <v>934.04026</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>875.4588500000001</v>
+        <v>877.05216</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>620.16374</v>
+        <v>624.2933200000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>716.33992</v>
+        <v>805.25855</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>869.0770600000001</v>
+        <v>1053.40346</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1436.81432</v>
+        <v>1640.40911</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>1200.03078</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>2333.51945</v>
+        <v>4370.64487</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1758.83236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1770.53581</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>4029.154</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>63757.39301</v>
+        <v>67319.75521</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>67006.84692</v>
+        <v>69187.4452</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>74914.27505</v>
+        <v>78911.79760999999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>79282.42333000001</v>
+        <v>83170.85507999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>79982.08509000001</v>
+        <v>84065.53307999999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>91666.44302000001</v>
+        <v>99526.1839</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>110672.5589</v>
+        <v>121243.85991</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>139343.07459</v>
+        <v>150266.65818</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>159149.90938</v>
+        <v>186558.82568</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>238744.43786</v>
+        <v>255446.48285</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>303750.65611</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>330814.92199</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>328713.776</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>426082.63907</v>
+        <v>450030.50623</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>472673.15731</v>
+        <v>497485.20057</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>519771.99158</v>
+        <v>551626.08511</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>575854.32051</v>
+        <v>618541.8595899999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>625332.24489</v>
+        <v>672369.8146800001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>693795.9626</v>
+        <v>741688.66715</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>804316.8997300001</v>
+        <v>878942.62853</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>960855.7896099999</v>
+        <v>1063989.73167</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1111774.97837</v>
+        <v>1229938.9683</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1610188.40299</v>
+        <v>1733149.17999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1957399.70775</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2211473.5314</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2056162.545</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-36774.97428</v>
+        <v>-44618.15758</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-34407.39520000001</v>
+        <v>-43409.80295</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-63329.77686</v>
+        <v>-74818.43159000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-79133.54028</v>
+        <v>-94958.38916999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-120082.24099</v>
+        <v>-134005.20949</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-142546.35113</v>
+        <v>-160458.16368</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-198355.78678</v>
+        <v>-230841.21428</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-263675.35595</v>
+        <v>-311457.29908</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-256928.38804</v>
+        <v>-319492.25835</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-321613.67479</v>
+        <v>-359277.0122000001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-328147.97966</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-378094.92561</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-513732.009</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>12246.93661</v>
+        <v>28361.52913</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>13319.67717</v>
+        <v>38005.11981</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>16677.30835</v>
+        <v>70480.63284000001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>15050.74989</v>
+        <v>47848.14066</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>19041.8771</v>
+        <v>72072.90131</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>17138.05965</v>
+        <v>76290.3276</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>21643.20321</v>
+        <v>71194.73514</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>28458.51142</v>
+        <v>75453.30734999999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>30571.60954</v>
+        <v>95129.68113</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>72248.18025999999</v>
+        <v>266715.62383</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>73977.60057</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>275110.7787</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>279786.428</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>276.85939</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>196.71492</v>
+        <v>8477.819230000001</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>388.6545</v>
+        <v>885.7716100000001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>27.8099</v>
+        <v>231.44205</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>161.50332</v>
+        <v>2969.08549</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>21.43256</v>
+        <v>10775.33429</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>693.5739</v>
+        <v>4830.03107</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>284.26103</v>
+        <v>8182.07282</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>122.75762</v>
+        <v>9084.861389999998</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>566.07863</v>
+        <v>58641.16202</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>643.8994299999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>118653.19655</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>48498.964</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>1.53487</v>
+        <v>56.23257</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>178.2584</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>56.11062</v>
+        <v>137.03586</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>19.7055</v>
+        <v>1135.816</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>391.79052</v>
+        <v>1800.50455</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>68.43464</v>
+        <v>2137.26381</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>435.21208</v>
+        <v>623.7484899999999</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>175.01678</v>
+        <v>1653.42713</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>15.26997</v>
+        <v>20.62832</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>189.2935</v>
+        <v>195.53325</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>666.5643999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>673.07485</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>17197.25</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1819.24318</v>
+        <v>11064.14544</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1839.68746</v>
+        <v>10043.26283</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>2440.10045</v>
+        <v>15905.95638</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>3193.3123</v>
+        <v>11314.8816</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2916.70358</v>
+        <v>10880.75275</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>3204.18086</v>
+        <v>15381.94007</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3397.24971</v>
+        <v>20312.44898</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>3224.13009</v>
+        <v>14299.54223</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>3942.043</v>
+        <v>16868.3455</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>15277.73727</v>
+        <v>34125.07379000001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>13203.59462</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>30070.71965</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>24715.231</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>958.22863</v>
+        <v>997.67679</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>986.0551</v>
+        <v>1023.3721</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1294.30288</v>
+        <v>1637.88486</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1013.23982</v>
+        <v>1326.93441</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1181.68848</v>
+        <v>1555.41555</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>857.2247</v>
+        <v>1315.16308</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>977.67396</v>
+        <v>1148.25481</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>880.1877799999999</v>
+        <v>890.50579</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>752.2793099999999</v>
+        <v>920.4407</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>902.03579</v>
+        <v>902.59159</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1286.01183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1346.52484</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>2728.433</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>332.85424</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>493.29373</v>
+        <v>648.67543</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>129.50163</v>
+        <v>345.9559399999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>58.97061</v>
+        <v>268.54549</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>99.78605999999999</v>
+        <v>299.09258</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>84.32469</v>
+        <v>173.68963</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>112.34434</v>
+        <v>215.89104</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>448.62415</v>
+        <v>4874.78897</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>619.4954200000001</v>
+        <v>2728.55049</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>190.66743</v>
+        <v>320.14214</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>487.59699</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>799.23858</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>670.237</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>169.73935</v>
+        <v>362.68701</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>201.74612</v>
+        <v>223.82839</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>471.93363</v>
+        <v>548.58434</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>220.7689</v>
+        <v>710.5545400000001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>239.17857</v>
+        <v>428.32461</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>245.69798</v>
+        <v>751.94215</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>253.43144</v>
+        <v>721.3148999999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>281.7786600000001</v>
+        <v>556.96779</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>382.3062400000001</v>
+        <v>6217.51442</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>652.8185</v>
+        <v>1289.88284</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>958.4676100000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1858.37155</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1929.778</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1438.11346</v>
+        <v>2658.51138</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1693.68056</v>
+        <v>4123.73876</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2649.20757</v>
+        <v>26311.02494</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>839.49475</v>
+        <v>14909.90319</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2015.08132</v>
+        <v>32914.74618</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1174.64525</v>
+        <v>26839.00303</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>3094.24965</v>
+        <v>12661.17047</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>4022.07439</v>
+        <v>16412.91146</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>3987.09385</v>
+        <v>23122.67882</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>22450.02059</v>
+        <v>125176.95621</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>13758.77557</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>62861.63409</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>128211.055</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>23.2098</v>
@@ -2048,7 +2094,7 @@
         <v>32.21474</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>39.34003</v>
+        <v>117.65353</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>22.90635</v>
@@ -2057,13 +2103,13 @@
         <v>87.35852</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>2.32131</v>
+        <v>3.87235</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>2.26522</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>15.56072</v>
+        <v>150.56072</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>241.99031</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>37.07606000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1.108</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>39.31842</v>
@@ -2096,13 +2147,13 @@
         <v>29.11552</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>106.97384</v>
+        <v>112.74466</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>17.62048</v>
+        <v>84.54138999999999</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>4.91923</v>
+        <v>157.49402</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>172.36071</v>
@@ -2113,269 +2164,304 @@
       <c r="M34" s="48" t="n">
         <v>16.91635</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>159.313</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>7187.83527</v>
+        <v>12550.03409</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>7477.96682</v>
+        <v>13033.89061</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>9071.421869999998</v>
+        <v>24454.03021</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>9491.30862</v>
+        <v>17763.92389</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>11919.67121</v>
+        <v>21108.50556</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>11372.82382</v>
+        <v>18799.37453</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>12659.58243</v>
+        <v>30595.06877</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>19121.95859</v>
+        <v>28275.03642</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>20336.01311</v>
+        <v>35752.31047</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>31893.83265</v>
+        <v>45938.58609</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>42918.69770999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>58794.02618</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>55675.059</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>7564.54763</v>
+        <v>11566.48852</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>7845.420110000001</v>
+        <v>14336.14563</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>11770.25396</v>
+        <v>38100.50574</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>8368.22335</v>
+        <v>28436.51222</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>7948.1178</v>
+        <v>53157.97684</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>10230.51544</v>
+        <v>35545.17826</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>10238.7178</v>
+        <v>25357.38954</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>14930.54412</v>
+        <v>33739.22126</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>14579.78507</v>
+        <v>41344.18468</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>45147.10481</v>
+        <v>183477.29536</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>39456.61667</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>149243.18026</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>173880.748</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1284.05946</v>
+        <v>1470.67091</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1656.04483</v>
+        <v>1678.19753</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1894.14923</v>
+        <v>1948.23705</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>2059.29006</v>
+        <v>2102.03213</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2264.48362</v>
+        <v>2648.03973</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>3262.13731</v>
+        <v>3549.08572</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>4668.36142</v>
+        <v>4981.910730000001</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>4429.63662</v>
+        <v>4928.781109999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>4519.462489999999</v>
+        <v>5312.463850000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>7392.26413</v>
+        <v>7638.99926</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>11333.19285</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>12011.25336</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>13062.925</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>682.8731300000001</v>
+        <v>728.2999599999999</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>616.0241699999999</v>
+        <v>682.56033</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>827.3273099999999</v>
+        <v>1091.52664</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>2122.95416</v>
+        <v>7059.94381</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1301.09705</v>
+        <v>1571.62099</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>595.4063000000001</v>
+        <v>1250.75649</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>320.71027</v>
+        <v>3210.0448</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>2838.42768</v>
+        <v>3456.686369999999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>1186.86879</v>
+        <v>1364.83267</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1138.70396</v>
+        <v>2762.04777</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>2619.16558</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>3836.35083</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>4213.903</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>103.21753</v>
+        <v>192.81572</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>44.06989</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>2078.82508</v>
+        <v>2081.57662</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>74.92367</v>
+        <v>407.77607</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>66.75132000000001</v>
+        <v>74.35142999999999</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>210.68734</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>57.88448</v>
+        <v>68.39744999999999</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>57.05287</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>61.89986</v>
+        <v>102.77839</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>397.6127</v>
+        <v>412.03249</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>179.49193</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>190.21491</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>755.182</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1344.78773</v>
+        <v>2730.80839</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1525.16825</v>
+        <v>5871.14092</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1778.91636</v>
+        <v>24670.96936</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1033.95553</v>
+        <v>13332.7308</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>737.55638</v>
+        <v>44850.43915</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>923.5285700000001</v>
+        <v>24253.21432</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1381.70998</v>
+        <v>11752.92218</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2352.62006</v>
+        <v>16802.75219</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>2990.27092</v>
+        <v>25261.04057</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>26157.24042</v>
+        <v>156959.90223</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>13375.4258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>114156.78337</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>140672.666</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>276.81315</v>
+        <v>276.96655</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>5.14969</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>36.01428</v>
+        <v>36.32398</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>0.2790899999999999</v>
+        <v>0.69049</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>0.24084</v>
+        <v>0.29191</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>62.27959</v>
+        <v>63.61429</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>10.2803</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>8.281079999999999</v>
+        <v>15.81143</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>0.71014</v>
@@ -2386,20 +2472,25 @@
       <c r="M41" s="48" t="n">
         <v>6.09399</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>58.764</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>104.19669</v>
+        <v>1522.92616</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>51.01130999999999</v>
+        <v>1382.03502</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>152.77994</v>
+        <v>1483.80365</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>38.39939</v>
@@ -2408,610 +2499,688 @@
         <v>224.54075</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>60.29561000000001</v>
+        <v>60.29561</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>25.04224</v>
+        <v>183.94191</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>8.994590000000001</v>
+        <v>9.909720000000002</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>3.03319</v>
+        <v>40.08002</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>6.24551</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>148.48156</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>970.8642100000001</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>19.819</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>3768.59994</v>
+        <v>4644.00083</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>3947.95197</v>
+        <v>4672.99225</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>5002.241760000001</v>
+        <v>6788.06844</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>3038.42145</v>
+        <v>5494.939530000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3353.44784</v>
+        <v>3788.69288</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>5116.180719999999</v>
+        <v>6157.52449</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3774.72911</v>
+        <v>5149.89217</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5235.531220000001</v>
+        <v>8468.227570000001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>5817.53968</v>
+        <v>9262.279039999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>10055.03809</v>
+        <v>15698.0681</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>11794.76496</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>18071.61959</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>15097.489</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>12295.5716</v>
+        <v>16575.79722</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>11614.10882</v>
+        <v>16201.73382</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>13763.04318</v>
+        <v>21104.26445</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>16791.61683</v>
+        <v>29395.68582</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>16291.15204</v>
+        <v>35547.93616</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>18693.00827</v>
+        <v>27584.73128</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>22910.30606</v>
+        <v>37750.38965999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>28338.55404</v>
+        <v>50428.31669</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>33539.30782</v>
+        <v>64792.70046</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>69786.48131999999</v>
+        <v>111481.42377</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>85879.90522</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>126850.3249</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>130158.845</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>11872.11602</v>
+        <v>15449.86779</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>11013.55241</v>
+        <v>15433.04727</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>12966.84221</v>
+        <v>20184.53557</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>15950.02636</v>
+        <v>27279.57807</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>15785.91075</v>
+        <v>34923.52727</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>18085.96173</v>
+        <v>26646.19327</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>22052.9662</v>
+        <v>34503.32427</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>27317.14814</v>
+        <v>45716.59106999999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>31924.0958</v>
+        <v>62569.91296</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>66624.68085999999</v>
+        <v>106319.72961</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>82390.63811</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>122850.81152</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>127585.356</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>423.45558</v>
+        <v>1125.92943</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>600.55641</v>
+        <v>768.68655</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>796.20097</v>
+        <v>919.72888</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>841.59047</v>
+        <v>2116.10775</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>505.24129</v>
+        <v>624.40889</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>607.04654</v>
+        <v>938.53801</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>857.3398599999999</v>
+        <v>3247.06539</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1021.4059</v>
+        <v>4711.72562</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1615.21202</v>
+        <v>2222.7875</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>3161.80046</v>
+        <v>5161.69416</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>3489.26711</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>3999.51338</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2573.489</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-44388.1569</v>
+        <v>-44398.91419</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-40547.24696</v>
+        <v>-35942.56259</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-72185.76564999999</v>
+        <v>-63542.56894</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-89242.63056999999</v>
+        <v>-104942.44655</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-125279.63373</v>
+        <v>-150638.22118</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-154331.81519</v>
+        <v>-147297.74562</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-209861.60743</v>
+        <v>-222754.25834</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-278485.94269</v>
+        <v>-320171.52968</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-274475.87139</v>
+        <v>-330499.46236</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-364299.08066</v>
+        <v>-387520.1075</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-379506.90098</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-379077.65207</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-537985.174</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>10013.77761</v>
+        <v>11894.1608</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>11659.03756</v>
+        <v>14102.67533</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>16465.73191</v>
+        <v>24034.46946</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>19048.93346</v>
+        <v>35143.3814</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>15471.83949</v>
+        <v>44262.88435</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>18686.61296</v>
+        <v>38738.47287999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>23278.09241</v>
+        <v>32285.12083</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>37128.89419</v>
+        <v>53369.17217000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>47940.76344</v>
+        <v>66337.20173</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>55933.30816</v>
+        <v>71585.90231999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>79644.83807</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>187672.48076</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>161161.351</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>98.47868999999999</v>
+        <v>105.47869</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>203.87573</v>
+        <v>264.98873</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>167.74412</v>
+        <v>722.1050199999999</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1125.758</v>
+        <v>1179.9486</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>596.4968</v>
+        <v>812.57025</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>623.6454100000001</v>
+        <v>778.9125600000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>503.34896</v>
+        <v>925.05917</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>749.00289</v>
+        <v>789.6505</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1246.5483</v>
+        <v>2596.48651</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>306.02934</v>
+        <v>2561.06283</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>714.5551400000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>737.7796800000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>736.317</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>9915.298919999999</v>
+        <v>11788.68211</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>11455.16183</v>
+        <v>13837.6866</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>16297.98779</v>
+        <v>23312.36444</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>17923.17546</v>
+        <v>33963.4328</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>14875.34269</v>
+        <v>43450.3141</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>18062.96755</v>
+        <v>37959.56032</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>22774.74345</v>
+        <v>31360.06166</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>36379.8913</v>
+        <v>52579.52167</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>46694.21514</v>
+        <v>63740.71522</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>55627.27882</v>
+        <v>69024.83949000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>78930.28293</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>186934.70108</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>160425.034</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>18822.90585</v>
+        <v>22354.69163</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>18832.84852</v>
+        <v>26825.06466</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>77469.58395999999</v>
+        <v>117829.37041</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>28182.73333</v>
+        <v>40697.47985</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>24164.30404</v>
+        <v>32624.04502</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>51997.39881999999</v>
+        <v>67052.43579999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>37134.86323</v>
+        <v>46686.16908</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>105705.28309</v>
+        <v>122982.77975</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>54030.51272</v>
+        <v>81862.01950999998</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>116297.08669</v>
+        <v>175565.13139</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>86831.96216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>146717.5165</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>155221.567</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>456.83198</v>
+        <v>513.19375</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>460.70454</v>
+        <v>507.49441</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>856.87473</v>
+        <v>1045.47909</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>430.78693</v>
+        <v>529.8809100000001</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>764.50955</v>
+        <v>766.5080700000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>586.2402099999999</v>
+        <v>1066.03465</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1114.07733</v>
+        <v>1940.54958</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1163.04716</v>
+        <v>2083.64543</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>2074.84107</v>
+        <v>2827.10905</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1807.7511</v>
+        <v>2320.1296</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1919.34959</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>4055.64291</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>3795.52</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>2665.2936</v>
+        <v>3365.09862</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>2795.18468</v>
+        <v>3830.4226</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>2295.55247</v>
+        <v>3491.17415</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>3580.18496</v>
+        <v>4609.04529</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1749.35618</v>
+        <v>1893.1638</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2231.0053</v>
+        <v>2632.81202</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2741.11423</v>
+        <v>4393.95803</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>5585.385359999999</v>
+        <v>7884.99957</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>3649.50984</v>
+        <v>4802.84085</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>4092.861289999999</v>
+        <v>7641.498489999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>4256.71554</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>4474.23988</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>4031.473</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>15700.78027</v>
+        <v>18476.39926</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>15576.9593</v>
+        <v>22487.14765</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>74317.15675999998</v>
+        <v>113292.71717</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>24171.76144</v>
+        <v>35558.55365</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>21650.43831</v>
+        <v>29964.37315</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>49180.15330999999</v>
+        <v>63353.58913</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>33279.67167</v>
+        <v>40351.66147</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>98956.85057</v>
+        <v>113014.13475</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>48306.16181000001</v>
+        <v>74232.06961000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>110396.4743</v>
+        <v>165603.5033</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>80655.89703000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>138187.63371</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>147394.574</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-53197.28514</v>
+        <v>-54859.44502</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-47721.05792</v>
+        <v>-48664.95192</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-133189.6177</v>
+        <v>-157337.46989</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-98376.43043999998</v>
+        <v>-110496.545</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-133972.09828</v>
+        <v>-138999.38185</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-187642.60105</v>
+        <v>-175611.70854</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-223718.37825</v>
+        <v>-237155.30659</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-347062.33159</v>
+        <v>-389785.13726</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-280565.62067</v>
+        <v>-346024.28014</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-424662.85919</v>
+        <v>-491499.33657</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-386694.02507</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-338122.68781</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-532045.39</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>13210.78066</v>
+        <v>14447.59871</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>15398.08813</v>
+        <v>17001.65671</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>15521.76927</v>
+        <v>22018.64834</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>16250.40384</v>
+        <v>20179.48171</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>15615.1201</v>
+        <v>19903.77134</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>16202.77624</v>
+        <v>22036.30356</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>17133.45214</v>
+        <v>22375.33402</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>19155.91438</v>
+        <v>23585.21397</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>22990.60725</v>
+        <v>28509.85849</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>41039.86719</v>
+        <v>50732.93073000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>52653.86755</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>69189.39697999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>72585.06200000001</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-66408.0658</v>
+        <v>-69307.04373</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-63119.14605</v>
+        <v>-65666.60863</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-148711.38697</v>
+        <v>-179356.11823</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-114626.83428</v>
+        <v>-130676.02671</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-149587.21838</v>
+        <v>-158903.15319</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-203845.37729</v>
+        <v>-197648.0121</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-240851.83039</v>
+        <v>-259530.64061</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-366218.24597</v>
+        <v>-413370.35123</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-303556.22792</v>
+        <v>-374534.13863</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-465702.7263799999</v>
+        <v>-542232.2673000001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-439347.89262</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-407312.08479</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-604630.452</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>13034</v>
+        <v>13281</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>13651</v>
+        <v>13943</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>13767</v>
+        <v>14075</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>13643</v>
+        <v>14044</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>14036</v>
+        <v>14498</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>14306</v>
+        <v>14879</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>14918</v>
+        <v>15705</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>16257</v>
+        <v>17278</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>17951</v>
+        <v>19057</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>20357</v>
+        <v>22010</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>22002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>24964</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>27125</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>